--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E027565-0898-EC48-9542-5DD2180223C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B85872-7F01-5C45-8BF9-5E71D828171E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="crec_persons" sheetId="1" r:id="rId1"/>
-    <sheet name="crec_lookup" sheetId="2" r:id="rId2"/>
+    <sheet name="table_definitions" sheetId="3" r:id="rId1"/>
+    <sheet name="crec_persons" sheetId="1" r:id="rId2"/>
+    <sheet name="crec_lookup" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crec_persons!$A$1:$P$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">crec_persons!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="128">
   <si>
     <t>table_name</t>
   </si>
@@ -460,12 +461,48 @@
   <si>
     <t>not mapped</t>
   </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>crec_persons</t>
+  </si>
+  <si>
+    <t>crec</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -507,6 +544,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -576,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,6 +652,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,13 +868,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC95F4-02E8-0A4B-AAFA-EC43C582E824}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -4113,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4138,7 +4244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -4150,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -4162,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -4174,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>3</v>
       </c>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B85872-7F01-5C45-8BF9-5E71D828171E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAA4B7-28F0-D044-9396-EAE7A0458E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="129">
   <si>
     <t>table_name</t>
   </si>
@@ -496,6 +496,10 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>convert_to_timestamp = {"date": "Modify", "time": "at.1"} 
+latest = {"col": "timestamp", "per": "Case"}</t>
   </si>
 </sst>
 </file>
@@ -619,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -650,10 +654,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,56 +878,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC95F4-02E8-0A4B-AAFA-EC43C582E824}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="49.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>125</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2367,8 +2380,8 @@
       <c r="D50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2423,8 +2436,8 @@
       <c r="D52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3067,8 +3080,8 @@
       <c r="D75" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3125,8 +3138,8 @@
       <c r="D77" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3215,8 +3228,8 @@
       <c r="D80" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAA4B7-28F0-D044-9396-EAE7A0458E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF15AAD-9051-D244-AAF7-815DC5EFE8BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="130">
   <si>
     <t>table_name</t>
   </si>
@@ -500,6 +500,9 @@
   <si>
     <t>convert_to_timestamp = {"date": "Modify", "time": "at.1"} 
 latest = {"col": "timestamp", "per": "Case"}</t>
+  </si>
+  <si>
+    <t>Modify, at.1, Case</t>
   </si>
 </sst>
 </file>
@@ -656,11 +659,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +882,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -932,8 +935,11 @@
       <c r="F2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>128</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2380,8 +2386,8 @@
       <c r="D50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2436,8 +2442,8 @@
       <c r="D52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3080,8 +3086,8 @@
       <c r="D75" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3138,8 +3144,8 @@
       <c r="D77" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3228,8 +3234,8 @@
       <c r="D80" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF15AAD-9051-D244-AAF7-815DC5EFE8BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2E40A-55DB-F040-A3D6-7813E8B9AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="4340" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="3" r:id="rId1"/>
     <sheet name="crec_persons" sheetId="1" r:id="rId2"/>
-    <sheet name="crec_lookup" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">crec_persons!$A$1:$P$82</definedName>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="124">
   <si>
     <t>table_name</t>
   </si>
@@ -429,9 +428,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>crec_lookup</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -442,21 +438,6 @@
   </si>
   <si>
     <t>executor_id</t>
-  </si>
-  <si>
-    <t>casrec_code</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>Casrec Desc</t>
-  </si>
-  <si>
-    <t>sirius_mapping</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>not mapped</t>
@@ -509,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -541,16 +522,6 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -626,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -647,17 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -881,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC95F4-02E8-0A4B-AAFA-EC43C582E824}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -890,56 +851,56 @@
     <col min="7" max="7" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="F2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H2" s="13" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -954,9 +915,9 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1053,7 +1014,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1081,7 +1042,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P3" s="4"/>
     </row>
@@ -1109,7 +1070,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P4" s="4"/>
     </row>
@@ -1137,7 +1098,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P5" s="4"/>
     </row>
@@ -1165,7 +1126,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P6" s="4"/>
     </row>
@@ -1193,7 +1154,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P7" s="4"/>
     </row>
@@ -1221,7 +1182,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -1249,7 +1210,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P9" s="4"/>
     </row>
@@ -1277,7 +1238,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P10" s="4"/>
     </row>
@@ -1305,7 +1266,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -1333,7 +1294,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P12" s="4"/>
     </row>
@@ -1361,7 +1322,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P13" s="4"/>
     </row>
@@ -1389,7 +1350,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P14" s="4"/>
     </row>
@@ -1417,7 +1378,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P15" s="4"/>
     </row>
@@ -1445,7 +1406,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P16" s="4"/>
     </row>
@@ -1473,7 +1434,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P17" s="4"/>
     </row>
@@ -1501,7 +1462,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P18" s="4"/>
     </row>
@@ -1529,7 +1490,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P19" s="4"/>
     </row>
@@ -1557,7 +1518,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P20" s="4"/>
     </row>
@@ -1585,7 +1546,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P21" s="4"/>
     </row>
@@ -1613,7 +1574,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P22" s="4"/>
     </row>
@@ -1641,7 +1602,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P23" s="4"/>
     </row>
@@ -1669,7 +1630,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P24" s="4"/>
     </row>
@@ -1697,7 +1658,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P25" s="4"/>
     </row>
@@ -1725,7 +1686,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P26" s="4"/>
     </row>
@@ -1753,7 +1714,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P27" s="4"/>
     </row>
@@ -1781,7 +1742,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P28" s="4"/>
     </row>
@@ -1809,7 +1770,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P29" s="4"/>
     </row>
@@ -1837,7 +1798,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P30" s="4"/>
     </row>
@@ -1865,7 +1826,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P31" s="4"/>
     </row>
@@ -1893,7 +1854,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P32" s="4"/>
     </row>
@@ -1921,7 +1882,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P33" s="4"/>
     </row>
@@ -1949,7 +1910,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P34" s="4"/>
     </row>
@@ -1977,7 +1938,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P35" s="4"/>
     </row>
@@ -2005,7 +1966,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P36" s="4"/>
     </row>
@@ -2033,7 +1994,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P37" s="4"/>
     </row>
@@ -2061,7 +2022,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P38" s="4"/>
     </row>
@@ -2089,7 +2050,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P39" s="4"/>
     </row>
@@ -2117,7 +2078,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P40" s="4"/>
     </row>
@@ -2145,7 +2106,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P41" s="4"/>
     </row>
@@ -2173,7 +2134,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P42" s="4"/>
     </row>
@@ -2201,7 +2162,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P43" s="4"/>
     </row>
@@ -2229,7 +2190,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P44" s="4"/>
     </row>
@@ -2257,7 +2218,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P45" s="4"/>
     </row>
@@ -2285,7 +2246,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P46" s="4"/>
     </row>
@@ -2313,7 +2274,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P47" s="4"/>
     </row>
@@ -2341,7 +2302,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P48" s="4"/>
     </row>
@@ -2369,7 +2330,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P49" s="4"/>
     </row>
@@ -2386,8 +2347,8 @@
       <c r="D50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2397,7 +2358,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P50" s="4"/>
     </row>
@@ -2425,7 +2386,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P51" s="4"/>
     </row>
@@ -2442,8 +2403,8 @@
       <c r="D52" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2453,7 +2414,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P52" s="4"/>
     </row>
@@ -2481,7 +2442,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P53" s="4"/>
     </row>
@@ -2509,7 +2470,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P54" s="4"/>
     </row>
@@ -2537,7 +2498,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P55" s="4"/>
     </row>
@@ -2565,7 +2526,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P56" s="4"/>
     </row>
@@ -2593,7 +2554,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P57" s="4"/>
     </row>
@@ -2621,7 +2582,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P58" s="4"/>
     </row>
@@ -2649,7 +2610,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P59" s="4"/>
     </row>
@@ -2677,7 +2638,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P60" s="4"/>
     </row>
@@ -2705,7 +2666,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P61" s="4"/>
     </row>
@@ -2733,7 +2694,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P62" s="4"/>
     </row>
@@ -2761,7 +2722,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P63" s="4"/>
     </row>
@@ -2789,7 +2750,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P64" s="4"/>
     </row>
@@ -2817,7 +2778,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P65" s="4"/>
     </row>
@@ -2845,7 +2806,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P66" s="4"/>
     </row>
@@ -2873,7 +2834,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P67" s="4"/>
     </row>
@@ -2901,7 +2862,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P68" s="4"/>
     </row>
@@ -2929,7 +2890,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P69" s="4"/>
     </row>
@@ -2957,7 +2918,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P70" s="4"/>
     </row>
@@ -2985,7 +2946,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P71" s="4"/>
     </row>
@@ -3013,7 +2974,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P72" s="4"/>
     </row>
@@ -3041,7 +3002,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P73" s="4"/>
     </row>
@@ -3069,7 +3030,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P74" s="4"/>
     </row>
@@ -3086,8 +3047,8 @@
       <c r="D75" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3097,7 +3058,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P75" s="4"/>
     </row>
@@ -3127,7 +3088,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P76" s="4"/>
     </row>
@@ -3144,8 +3105,8 @@
       <c r="D77" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3155,7 +3116,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P77" s="4"/>
     </row>
@@ -3183,7 +3144,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P78" s="4"/>
     </row>
@@ -3210,14 +3171,12 @@
         <v>104</v>
       </c>
       <c r="J79" s="9"/>
-      <c r="K79" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="K79" s="10"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P79" s="4"/>
     </row>
@@ -3226,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>22</v>
@@ -3234,8 +3193,8 @@
       <c r="D80" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -3245,7 +3204,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P80" s="4"/>
     </row>
@@ -3254,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>37</v>
@@ -3273,7 +3232,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P81" s="4"/>
     </row>
@@ -3282,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>18</v>
@@ -3301,7 +3260,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P82" s="4"/>
     </row>
@@ -4236,106 +4195,4 @@
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2E40A-55DB-F040-A3D6-7813E8B9AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F2FB4-92C1-D94F-A088-5444CBA8895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="4340" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="3" r:id="rId1"/>
@@ -479,11 +479,11 @@
     <t>data</t>
   </si>
   <si>
-    <t>convert_to_timestamp = {"date": "Modify", "time": "at.1"} 
+    <t>Modify, at1, Case</t>
+  </si>
+  <si>
+    <t>convert_to_timestamp = {"date": "Modify", "time": "at1"} 
 latest = {"col": "timestamp", "per": "Case"}</t>
-  </si>
-  <si>
-    <t>Modify, at.1, Case</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC95F4-02E8-0A4B-AAFA-EC43C582E824}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -897,10 +897,10 @@
         <v>119</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F2FB4-92C1-D94F-A088-5444CBA8895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC07027-D862-994D-906A-80371D58D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,10 +479,10 @@
     <t>data</t>
   </si>
   <si>
-    <t>Modify, at1, Case</t>
-  </si>
-  <si>
-    <t>convert_to_timestamp = {"date": "Modify", "time": "at1"} 
+    <t>Modify, at, Case</t>
+  </si>
+  <si>
+    <t>convert_to_timestamp = {"date": "Modify", "time": "at"} 
 latest = {"col": "timestamp", "per": "Case"}</t>
   </si>
 </sst>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC07027-D862-994D-906A-80371D58D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D977B1F0-BA1D-3B45-86AE-7EE99BE72EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,9 +473,6 @@
     <t>crec</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   <si>
     <t>convert_to_timestamp = {"date": "Modify", "time": "at"} 
 latest = {"col": "timestamp", "per": "Case"}</t>
+  </si>
+  <si>
+    <t>clients</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -885,22 +885,22 @@
         <v>119</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
